--- a/IPL/Data/exp/pstats_v01_LSG_fyml.xlsx
+++ b/IPL/Data/exp/pstats_v01_LSG_fyml.xlsx
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KR Mayers</t>
+          <t>M Vohra</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kyle Mayers</t>
+          <t>Manan Vohra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LHB</t>
+          <t>RHB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1184,174 +1184,132 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>53</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>54</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1(5), 2(7)</t>
+          <t>1(1)</t>
         </is>
       </c>
       <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
         <v>2</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>361</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>264</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>204</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>146</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="BA3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="BD3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
@@ -1376,38 +1334,28 @@
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>7</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>100</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>86</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>86</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>100</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1422,22 +1370,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DJ Hooda</t>
+          <t>KR Mayers</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deepak Hooda</t>
+          <t>Kyle Mayers</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RHB</t>
+          <t>LHB</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RAOB</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1447,12 +1395,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Spin</t>
+          <t>Pace</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>off-break</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1462,140 +1410,146 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="N4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>54</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM4" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1(5), 2(7)</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
         <v>2</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1(1), 2(1), 3(5), 4(2), 6(1), 7(1)</t>
-        </is>
-      </c>
-      <c r="AP4" t="n">
-        <v>3</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="AU4" t="n">
+        <v>264</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>204</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>146</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>73</v>
+      </c>
+      <c r="BA4" t="n">
         <v>27</v>
       </c>
-      <c r="AV4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>39</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>42</v>
-      </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="BD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
       <c r="BG4" t="n">
         <v>0</v>
       </c>
@@ -1603,14 +1557,24 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
       <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
       <c r="BT4" t="n">
         <v>0</v>
       </c>
@@ -1638,37 +1602,37 @@
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CG4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CH4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CI4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CL4" t="n">
         <v>100</v>
       </c>
       <c r="CM4" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="CN4" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="CO4" t="n">
         <v>100</v>
       </c>
       <c r="CP4" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1684,12 +1648,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>KH Pandya</t>
+          <t>Q de Kock</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Krunal Pandya</t>
+          <t>Quinton De Kock</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1697,26 +1661,10 @@
           <t>LHB</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>LAO</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Spin</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>orthodox</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -1724,248 +1672,184 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>3</v>
       </c>
-      <c r="X5" t="n">
-        <v>4</v>
-      </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>3</v>
       </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
       <c r="AN5" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2(1), 3(1), 4(6), 5(1), 7(2), 8(1)</t>
+          <t>2(3)</t>
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AT5" t="n">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AV5" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AY5" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="BA5" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="BD5" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1</v>
-      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>25</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>75</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>71</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>79</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>32</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>100</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1980,12 +1864,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MP Stoinis</t>
+          <t>DJ Hooda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marcus Stoinis</t>
+          <t>Deepak Hooda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1995,7 +1879,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>RAOB</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2005,12 +1889,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>Spin</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>off-break</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -2020,239 +1904,213 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="O6" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>1(1), 2(1), 3(5), 4(2), 6(1), 7(1)</t>
+        </is>
+      </c>
+      <c r="AP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT6" t="n">
         <v>69</v>
       </c>
-      <c r="R6" t="n">
-        <v>28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>46</v>
-      </c>
-      <c r="T6" t="n">
-        <v>22</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="AU6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW6" t="n">
         <v>13</v>
       </c>
-      <c r="V6" t="n">
-        <v>12</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>72</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>89</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>4(4), 5(7), 6(2)</t>
-        </is>
-      </c>
-      <c r="AP6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>368</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>272</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>75</v>
-      </c>
       <c r="AX6" t="n">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="AY6" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="BA6" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="BD6" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>20</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>40</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>40</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>60</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="CG6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CH6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CI6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CJ6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CK6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CL6" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="CM6" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="CN6" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="CO6" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="CP6" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -2268,22 +2126,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N Pooran</t>
+          <t>PN Mankad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nicholas Pooran</t>
+          <t>Prerak Mankad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LHB</t>
+          <t>RHB</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RAOB</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2293,12 +2151,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Spin</t>
+          <t>Pace</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>off-break</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -2308,141 +2166,119 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>3(2)</t>
+        </is>
+      </c>
+      <c r="AP7" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="n">
-        <v>115</v>
-      </c>
-      <c r="O7" t="n">
-        <v>65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>13</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AQ7" t="n">
         <v>32</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>62</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AR7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AZ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD7" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>4(1), 5(4), 6(7), 7(1)</t>
-        </is>
-      </c>
-      <c r="AP7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>183</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>83</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>61</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>37</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>70</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>28</v>
       </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
@@ -2520,12 +2356,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R Shepherd</t>
+          <t>KS Sharma</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Romario Shepherd</t>
+          <t>Karan Sharma</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2535,7 +2371,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RAFM</t>
+          <t>RAOB</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2545,12 +2381,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>Spin</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>off-break</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2560,13 +2396,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2609,55 +2445,67 @@
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="n">
+        <v>9</v>
+      </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6(1)</t>
+          <t>3(1)</t>
         </is>
       </c>
       <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV8" t="n">
         <v>6</v>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
       <c r="AW8" t="n">
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>33</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>89</v>
+      </c>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
@@ -2734,27 +2582,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A Badoni</t>
+          <t>KH Pandya</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ayush Badoni</t>
+          <t>Krunal Pandya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RHB</t>
+          <t>LHB</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RAOB</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2764,7 +2612,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>off-break</t>
+          <t>orthodox</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2774,211 +2622,247 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="O9" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y9" t="n">
         <v>2</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4</v>
       </c>
       <c r="Z9" t="n">
         <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
         <v>18</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AG9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH9" t="n">
         <v>23</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>49</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>2(1), 3(1), 4(6), 5(1), 7(2), 8(1)</t>
+        </is>
+      </c>
+      <c r="AP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>171</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>125</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>87</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>73</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>49</v>
+      </c>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BU9" t="n">
         <v>8</v>
       </c>
-      <c r="AI9" t="n">
-        <v>43</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>59</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>3(3), 5(1), 6(1), 7(5)</t>
-        </is>
-      </c>
-      <c r="AP9" t="n">
+      <c r="BV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
         <v>7</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>212</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>89</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>115</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>143</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>58</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>54</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD9" t="n">
+      <c r="BZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>25</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>75</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>88</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="CH9" t="n">
         <v>27</v>
       </c>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>1</v>
-      </c>
       <c r="CI9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CK9" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="CL9" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="CM9" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="CN9" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="CO9" t="n">
         <v>100</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2994,12 +2878,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ravi Bishnoi</t>
+          <t>MP Stoinis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ravi Bishnoi</t>
+          <t>Marcus Stoinis</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3009,7 +2893,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RALB</t>
+          <t>RAM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3019,12 +2903,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Spin</t>
+          <t>Pace</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>leg-break</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -3034,237 +2918,239 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
+        <v>197</v>
+      </c>
+      <c r="O10" t="n">
+        <v>35</v>
+      </c>
+      <c r="P10" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>69</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28</v>
+      </c>
+      <c r="S10" t="n">
+        <v>46</v>
+      </c>
+      <c r="T10" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10</v>
       </c>
-      <c r="O10" t="n">
-        <v>9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>330</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>263</v>
-      </c>
-      <c r="R10" t="n">
-        <v>16</v>
-      </c>
-      <c r="S10" t="n">
-        <v>279</v>
-      </c>
-      <c r="T10" t="n">
-        <v>35</v>
-      </c>
-      <c r="U10" t="n">
-        <v>12</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>72</v>
+      </c>
       <c r="AJ10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6</v>
+      </c>
       <c r="AL10" t="n">
         <v>4</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>89</v>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>8(2), 9(1), 10(2)</t>
+          <t>4(4), 5(7), 6(2)</t>
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="AY10" t="n">
+        <v>138</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>60</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="n">
         <v>2</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>33</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>87</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE10" t="n">
+      <c r="BK10" t="n">
         <v>2</v>
       </c>
-      <c r="BF10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
       <c r="BL10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="n">
         <v>2</v>
       </c>
-      <c r="BR10" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>15</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>14</v>
-      </c>
       <c r="BX10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>40</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK10" t="n">
         <v>9</v>
       </c>
-      <c r="BZ10" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>93</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>40</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>43</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>16</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>41</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>14</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>27</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>38</v>
-      </c>
       <c r="CL10" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="CM10" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="CN10" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="CO10" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="CP10" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -3280,17 +3166,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>K Gowtham</t>
+          <t>N Pooran</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K Gowtham</t>
+          <t>Nicholas Pooran</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RHB</t>
+          <t>LHB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3320,218 +3206,204 @@
         </is>
       </c>
       <c r="L11" t="n">
+        <v>183</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>115</v>
+      </c>
+      <c r="O11" t="n">
+        <v>65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>4(1), 5(4), 6(7), 7(1)</t>
+        </is>
+      </c>
+      <c r="AP11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>183</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>217</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>83</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>61</v>
+      </c>
+      <c r="BB11" t="n">
         <v>37</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>24</v>
-      </c>
-      <c r="P11" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>68</v>
-      </c>
-      <c r="R11" t="n">
-        <v>37</v>
-      </c>
-      <c r="S11" t="n">
-        <v>41</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>7(1), 8(4)</t>
-        </is>
-      </c>
-      <c r="AP11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>39</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>52</v>
-      </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="BD11" t="n">
-        <v>19</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="n">
-        <v>1</v>
-      </c>
+      <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="n">
-        <v>1</v>
-      </c>
+      <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>50</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>50</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>50</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>8</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>55</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>91</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>45</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>73</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3546,12 +3418,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JD Unadkat</t>
+          <t>R Shepherd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jaydev Unadkat</t>
+          <t>Romario Shepherd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3561,12 +3433,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LAFM</t>
+          <t>RAFM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3576,7 +3448,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>fast-medium</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -3586,34 +3458,34 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -3622,23 +3494,23 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="n">
-        <v>9</v>
-      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
@@ -3650,19 +3522,19 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>8(1)</t>
+          <t>6(1)</t>
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3671,39 +3543,23 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
@@ -3715,11 +3571,9 @@
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
@@ -3728,62 +3582,42 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
       </c>
-      <c r="CA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>100</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>100</v>
-      </c>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CH12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>7</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>88</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>50</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>75</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>88</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3798,12 +3632,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yudhvir Singh</t>
+          <t>A Badoni</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yudhvir Charak</t>
+          <t>Ayush Badoni</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3813,7 +3647,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RAFM</t>
+          <t>RAOB</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3823,12 +3657,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>Spin</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>fast-medium</t>
+          <t>off-break</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3838,149 +3672,161 @@
         </is>
       </c>
       <c r="L13" t="n">
+        <v>157</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>69</v>
+      </c>
+      <c r="O13" t="n">
+        <v>73</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
         <v>2</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>50</v>
-      </c>
-      <c r="R13" t="n">
-        <v>53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>11</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>23</v>
+      </c>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>8(1), 9(1)</t>
+          <t>3(3), 5(1), 6(1), 7(5)</t>
         </is>
       </c>
       <c r="AP13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>212</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AW13" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BB13" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="BC13" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="n">
-        <v>1</v>
-      </c>
+      <c r="BP13" t="inlineStr"/>
       <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>1</v>
-      </c>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -3989,58 +3835,48 @@
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>100</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>67</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CG13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CH13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CI13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CL13" t="n">
         <v>100</v>
       </c>
       <c r="CM13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="CN13" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="CO13" t="n">
         <v>100</v>
       </c>
       <c r="CP13" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4056,12 +3892,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A Mishra</t>
+          <t>Swapnil Singh</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Amit Mishra</t>
+          <t>Swapnil Singh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4071,12 +3907,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RALB</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4086,7 +3922,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>leg-break</t>
+          <t>orthodox</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -4096,37 +3932,37 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
         <v>18</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="P14" t="n">
-        <v>148</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>115</v>
-      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="T14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -4135,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -4151,42 +3987,44 @@
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="n">
-        <v>19</v>
-      </c>
+      <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>2</v>
+      </c>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>9(1)</t>
+          <t>7(1)</t>
         </is>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -4195,118 +4033,98 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="BC14" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="BD14" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="n">
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="n">
         <v>2</v>
       </c>
-      <c r="BH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
+      <c r="CG14" t="n">
         <v>2</v>
       </c>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>57</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>86</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>19</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>10</v>
-      </c>
       <c r="CH14" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="CI14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CK14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="CL14" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="CM14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="CN14" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="CO14" t="n">
         <v>100</v>
       </c>
       <c r="CP14" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -4322,12 +4140,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MA Wood</t>
+          <t>Ravi Bishnoi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Ravi Bishnoi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4337,7 +4155,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RAF</t>
+          <t>RALB</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4347,12 +4165,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>Spin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>leg-break</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -4362,34 +4180,34 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P15" t="n">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="Q15" t="n">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="R15" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="S15" t="n">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="T15" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -4398,171 +4216,201 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
+      <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3</v>
+      </c>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>5</v>
+      </c>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>4</v>
+      </c>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>9(2)</t>
+          <t>8(2), 9(1), 10(2)</t>
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>4</v>
+      </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BB15" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BC15" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BE15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF15" t="n">
         <v>3</v>
       </c>
-      <c r="BG15" t="inlineStr"/>
+      <c r="BG15" t="n">
+        <v>1</v>
+      </c>
       <c r="BH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>2</v>
       </c>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
+      <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2</v>
+      </c>
       <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1</v>
+      </c>
       <c r="BT15" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="BU15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BV15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>6</v>
       </c>
-      <c r="BY15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>5</v>
-      </c>
       <c r="CA15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
+        <v>93</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>60</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>43</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>41</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>27</v>
       </c>
-      <c r="CC15" t="n">
-        <v>55</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>45</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>55</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>16</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>9</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>11</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>8</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>10</v>
-      </c>
       <c r="CK15" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="CL15" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CM15" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="CN15" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="CO15" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="CP15" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -4578,12 +4426,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Naveen-ul-Haq</t>
+          <t>K Gowtham</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Naveen ul Haq</t>
+          <t>K Gowtham</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4593,7 +4441,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RAFM</t>
+          <t>RAOB</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4603,12 +4451,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>Spin</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>off-break</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -4618,150 +4466,154 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="n">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="R16" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="S16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T16" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AB16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>1</v>
+      </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>10(1)</t>
+          <t>7(1), 8(4)</t>
         </is>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="BB16" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="BC16" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>15</v>
-      </c>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>3</v>
-      </c>
+      <c r="BI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="BU16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BV16" t="n">
         <v>1</v>
@@ -4770,61 +4622,61 @@
         <v>1</v>
       </c>
       <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>50</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="CG16" t="n">
         <v>5</v>
       </c>
-      <c r="BY16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>14</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>71</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>57</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>43</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>20</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>12</v>
-      </c>
       <c r="CH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>9</v>
       </c>
-      <c r="CI16" t="n">
-        <v>14</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>14</v>
-      </c>
       <c r="CK16" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="CL16" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="CM16" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN16" t="n">
         <v>45</v>
       </c>
-      <c r="CN16" t="n">
-        <v>60</v>
-      </c>
       <c r="CO16" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="CP16" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -4840,12 +4692,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>JD Unadkat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>Jaydev Unadkat</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4855,12 +4707,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RAFM</t>
+          <t>LAFM</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4880,7 +4732,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -4889,28 +4741,28 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="n">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="R17" t="n">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="T17" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="U17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -4919,10 +4771,10 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -4931,7 +4783,7 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
@@ -4944,19 +4796,19 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>11(1)</t>
+          <t>8(1)</t>
         </is>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4965,124 +4817,118 @@
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY17" t="n">
         <v>0</v>
       </c>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
       <c r="BE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="n">
+        <v>1</v>
+      </c>
       <c r="BH17" t="n">
         <v>0</v>
       </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>1</v>
-      </c>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>1</v>
-      </c>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="BU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>100</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>100</v>
+      </c>
+      <c r="CF17" t="n">
         <v>8</v>
       </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
+      <c r="CG17" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH17" t="n">
         <v>4</v>
       </c>
-      <c r="BX17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
+      <c r="CI17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM17" t="n">
         <v>50</v>
       </c>
-      <c r="CC17" t="n">
-        <v>50</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>50</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>50</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>19</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>27</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>72</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>55</v>
-      </c>
       <c r="CN17" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="CO17" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="CP17" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -5098,12 +4944,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yash Thakur</t>
+          <t>Yudhvir Singh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yash Thakur</t>
+          <t>Yudhvir Charak</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -5113,7 +4959,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RAM</t>
+          <t>RAFM</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5128,7 +4974,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>fast-medium</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -5138,7 +4984,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -5147,28 +4993,28 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="Q18" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="R18" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S18" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -5177,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -5189,8 +5035,12 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -5198,13 +5048,21 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>8(1), 9(1)</t>
+        </is>
+      </c>
+      <c r="AP18" t="n">
+        <v>8</v>
+      </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5213,136 +5071,170 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>0</v>
       </c>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
       <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1</v>
-      </c>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
       <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="n">
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>100</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>67</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>33</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH18" t="n">
         <v>4</v>
       </c>
-      <c r="BM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>9</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BY18" t="n">
+      <c r="CI18" t="n">
         <v>8</v>
       </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>22</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>67</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>89</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>25</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>17</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>17</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>12</v>
-      </c>
       <c r="CJ18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="CK18" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CL18" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="CM18" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="CN18" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="CO18" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CP18" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q de Kock</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>A Mishra</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Amit Mishra</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RALB</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Spin</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>leg-break</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -5350,52 +5242,52 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -5405,126 +5297,210 @@
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>9(1)</t>
+        </is>
+      </c>
+      <c r="AP19" t="n">
+        <v>9</v>
+      </c>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>19</v>
+      </c>
       <c r="AT19" t="n">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AX19" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="AZ19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="BC19" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="BD19" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
+      <c r="BG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1</v>
+      </c>
       <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>2</v>
+      </c>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
+      <c r="BP19" t="n">
+        <v>1</v>
+      </c>
       <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
       <c r="BU19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BV19" t="n">
         <v>0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
-      <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>57</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>43</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>86</v>
+      </c>
       <c r="CF19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CG19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CI19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
-      <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>37</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>95</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>53</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mohsin Khan (2)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>MA Wood</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mark Wood</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>RAF</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -5532,7 +5508,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -5541,28 +5517,28 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="R20" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -5571,18 +5547,22 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
@@ -5592,13 +5572,21 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>9(2)</t>
+        </is>
+      </c>
+      <c r="AP20" t="n">
+        <v>9</v>
+      </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AS20" t="n">
+        <v>6</v>
+      </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5607,24 +5595,42 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
       </c>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>100</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3</v>
+      </c>
       <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
+      <c r="BH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="inlineStr"/>
@@ -5635,88 +5641,122 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
-      <c r="BT20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>2.8</v>
+      </c>
       <c r="BU20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV20" t="n">
         <v>2</v>
       </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BX20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BY20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BZ20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CA20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CB20" t="n">
+        <v>27</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>55</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>45</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL20" t="n">
         <v>50</v>
       </c>
-      <c r="CC20" t="n">
-        <v>50</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>50</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>50</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>6</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>5</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>83</v>
-      </c>
       <c r="CM20" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="CN20" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="CO20" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="CP20" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PN Mankad</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>Naveen-ul-Haq</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Naveen ul Haq</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>RAFM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -5724,46 +5764,46 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>1</v>
@@ -5779,126 +5819,206 @@
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>10(1)</t>
+        </is>
+      </c>
+      <c r="AP21" t="n">
+        <v>10</v>
+      </c>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>13</v>
+      </c>
       <c r="AT21" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="BC21" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="BD21" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>3</v>
+      </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr"/>
-      <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
-      <c r="BT21" t="inlineStr"/>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>1.4</v>
+      </c>
       <c r="BU21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>14</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>14</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>71</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>57</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>43</v>
+      </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CG21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CI21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
-      <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
-      <c r="CP21" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>70</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>45</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>60</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>95</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Swapnil Singh</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>Avesh Khan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Avesh Khan</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>RAFM</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>fast-medium</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -5906,7 +6026,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -5915,25 +6035,25 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="Q22" t="n">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="S22" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -5956,7 +6076,9 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
@@ -5966,131 +6088,195 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>11(1)</t>
+        </is>
+      </c>
+      <c r="AP22" t="n">
+        <v>11</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
       <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="n">
         <v>2</v>
       </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr"/>
+      <c r="BF22" t="n">
+        <v>1</v>
+      </c>
       <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
+      <c r="BO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1</v>
+      </c>
       <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr"/>
-      <c r="BT22" t="inlineStr"/>
+      <c r="BR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.9</v>
+      </c>
       <c r="BU22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BV22" t="n">
         <v>0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>50</v>
+      </c>
       <c r="CF22" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="CG22" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="CH22" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="CI22" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="CJ22" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="CK22" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="CL22" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="CM22" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="CN22" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="CO22" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="CP22" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KS Sharma</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>Yash Thakur</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yash Thakur</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RHB</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -6098,43 +6284,43 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -6143,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -6164,115 +6350,177 @@
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>33</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1</v>
+      </c>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+      <c r="BL23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1</v>
+      </c>
       <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr"/>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
-      <c r="BT23" t="inlineStr"/>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>1.3</v>
+      </c>
       <c r="BU23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BZ23" t="n">
         <v>0</v>
       </c>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
-      <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
+      <c r="CA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>22</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>100</v>
+      </c>
       <c r="CF23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
-      <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>48</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>68</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>68</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>96</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lucknow Super Giants</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>M Vohra</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>Mohsin Khan (2)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mohsin Khan</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LHB</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LAFM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -6280,10 +6528,10 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -6292,28 +6540,28 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -6325,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -6346,10 +6594,10 @@
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -6358,26 +6606,16 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>80</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
@@ -6388,58 +6626,88 @@
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
+      <c r="BO24" t="n">
+        <v>1</v>
+      </c>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr"/>
-      <c r="BT24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>1</v>
+      </c>
       <c r="BU24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV24" t="n">
         <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr"/>
-      <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr"/>
-      <c r="CE24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>50</v>
+      </c>
       <c r="CF24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CG24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
-      <c r="CP24" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>83</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>50</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>67</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>100</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
